--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -12,12 +12,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Grocery Shopping Business Deal</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <t>Ms. Bianchi and Ms. Morrison walked into the grocery store at the same time, and after a moment of mutual recognition, greeted each other and shook hands.</t>
+  </si>
+  <si>
+    <t>"Thank you again for inviting me here to discuss my business proposal," said Ms. Bianchi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"It’s a pleasure to be out of the office." </t>
+  </si>
+  <si>
+    <t>As a salesperson for an Italian cheese company that was trying to expand its outreach to more mainstream grocery stores, this meeting could be a big break for her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Her sales target, Ms. Morrison, was a corporate buyer for a large chain grocery store who had a reputation for being a bit quirky. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For example, she said that she liked to make deals with suppliers in the place where the products were sold, to keep their minds focused on what’s important. </t>
+  </si>
+  <si>
+    <t>They chatted a little in the front of the grocery store, surrounded by pumpkins and halloween decorations set up in special displays for the holiday season.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ms. Bianchi and Ms. Morrison walked to the cheese section, and Ms. Morrison picked up a block of parmesan.</t>
+  </si>
+  <si>
+    <t>“We have quite a selection here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t know that it needs an additional section for more gourmet cheeses.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ms. Bianchi's confidence faltered for a minute at this remark, but then she launched into her prepared pitch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Ms. Morrison, I think you would agree that selling food is more than just providing variety, but also about providing the highest quality.</t>
+  </si>
+  <si>
+    <t>You don’t have cheeses made in America that are like ours.</t>
+  </si>
+  <si>
+    <t>Your store could be providing American consumers with a dimension in taste that they've never known before.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I propose that you give it a shot, buy shipments for a few stores and see how the sales increase not only in our cheeses, but in products related to cheeses: crackers, jams, olives. </t>
+  </si>
+  <si>
+    <t>The availability of a finer product leads to the appreciation of the product, and your consumers will start to consume in a new, more profitable way.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ms. Bianchi picked up a box of crackers by the cheese section, and said, “Here, I will buy these, and we can try some of our cheeses that I've brought with me.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ms. Morrison, nodding in agreement, said, “That sounds like a great idea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let’s head to check out, and those crackers are on me.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They walked over to the checkout area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was a very long line, and it was very busy in the checkout area as people were stocking up for Halloween parties and trick-or-treating. </t>
+  </si>
+  <si>
+    <t>Since they had almost a 10 minute wait in line, Ms. Bianchi handed a sheet with printed graphs to Ms. Morrison, showing the increase in profits that several other stores had seen after starting to carry their products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventually, Ms. Morrison replied, “You know what, I think you've convinced me that this could work. </t>
+  </si>
+  <si>
+    <t>We've been trying to find a way to add a little European cachet to our stores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There's still a problem though - I'm worried we'll be paying out the nose for the import taxes.</t>
+  </si>
+  <si>
+    <t>Is that the case?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was Ms. Morrison’s turn to checkout, and the two businesswomen continued to talk back and forth as she did so. </t>
+  </si>
+  <si>
+    <t>The cashier scanned the crackers, and  Ms. Bianchi watched in amusement as Ms. Morrison paid the $6 price entirely in quarters from a wallet bulging with change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They shortly came to an agreement to have enough cheese shipments to different stores to qualify for a subsidized import tax. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ms. Bianchi retrieved some of her samples from her car, and they toasted their new deal with crackers topped with fresh mozzarella. </t>
   </si>
 </sst>
 </file>
@@ -184,7 +277,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +290,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,13 +305,19 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,7 +1402,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1418,511 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="2" ht="140.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="80.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="44.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="140.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="104.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="116.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="128.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="92.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="68.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="104.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="116.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="56.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="92.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="152.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="128.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="128.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="68.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="56.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="44.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="116.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="188.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="80.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="68.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="80.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="104.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="140.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="116.05" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="104.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -23,7 +23,7 @@
     <t>socialEvent</t>
   </si>
   <si>
-    <t>Ms. Bianchi and Ms. Morrison walked into the grocery store at the same time, and after a moment of mutual recognition, greeted each other and shook hands.</t>
+    <t>Ms. Bianchi and Ms. Morrison walked into the grocery store at the same time, and, after a moment of mutual recognition, greeted each other and shook hands.</t>
   </si>
   <si>
     <t>"Thank you again for inviting me here to discuss my business proposal," said Ms. Bianchi.</t>
@@ -35,13 +35,13 @@
     <t>As a salesperson for an Italian cheese company that was trying to expand its outreach to more mainstream grocery stores, this meeting could be a big break for her.</t>
   </si>
   <si>
-    <t xml:space="preserve">Her sales target, Ms. Morrison, was a corporate buyer for a large chain grocery store who had a reputation for being a bit quirky. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For example, she said that she liked to make deals with suppliers in the place where the products were sold, to keep their minds focused on what’s important. </t>
-  </si>
-  <si>
-    <t>They chatted a little in the front of the grocery store, surrounded by pumpkins and halloween decorations set up in special displays for the holiday season.</t>
+    <t xml:space="preserve">Her sales target, Ms. Morrison,  who had a reputation for being a bit quirky, was a corporate buyer for a large chain grocery store. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
+  </si>
+  <si>
+    <t>They chatted a little in the front of the grocery store, which was surrounded by pumpkins and halloween decorations set up in special displays for the holiday season.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ms. Bianchi and Ms. Morrison walked to the cheese section, and Ms. Morrison picked up a block of parmesan.</t>
@@ -62,10 +62,10 @@
     <t>You don’t have cheeses made in America that are like ours.</t>
   </si>
   <si>
-    <t>Your store could be providing American consumers with a dimension in taste that they've never known before.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I propose that you give it a shot, buy shipments for a few stores and see how the sales increase not only in our cheeses, but in products related to cheeses: crackers, jams, olives. </t>
+    <t>Your store could be providing American consumers with a dimension in taste that they've never known before with our product.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I propose that you give it a shot, buy shipments for a few stores, and see how the sales increase not only in our cheeses but also in products related to cheeses: crackers, jams, olives. </t>
   </si>
   <si>
     <t>The availability of a finer product leads to the appreciation of the product, and your consumers will start to consume in a new, more profitable way.”</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve"> Ms. Morrison, nodding in agreement, said, “That sounds like a great idea.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Let’s head to check out, and those crackers are on me.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> They walked over to the checkout area.</t>
+    <t xml:space="preserve">Let’s head to check out, and those crackers are on me.” </t>
+  </si>
+  <si>
+    <t>They walked over to the checkout area.</t>
   </si>
   <si>
     <t xml:space="preserve">There was a very long line, and it was very busy in the checkout area as people were stocking up for Halloween parties and trick-or-treating. </t>
   </si>
   <si>
-    <t>Since they had almost a 10 minute wait in line, Ms. Bianchi handed a sheet with printed graphs to Ms. Morrison, showing the increase in profits that several other stores had seen after starting to carry their products.</t>
+    <t>Since they had almost a 10 minute wait in line, Ms. Bianchi handed a sheet with printed graphs to Ms. Morrison the increase in profits that several other stores had seen after starting to carry their products.</t>
   </si>
   <si>
     <t xml:space="preserve">Eventually, Ms. Morrison replied, “You know what, I think you've convinced me that this could work. </t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve"> It was Ms. Morrison’s turn to checkout, and the two businesswomen continued to talk back and forth as she did so. </t>
   </si>
   <si>
-    <t>The cashier scanned the crackers, and  Ms. Bianchi watched in amusement as Ms. Morrison paid the $6 price entirely in quarters from a wallet bulging with change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> They shortly came to an agreement to have enough cheese shipments to different stores to qualify for a subsidized import tax. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ms. Bianchi retrieved some of her samples from her car, and they toasted their new deal with crackers topped with fresh mozzarella. </t>
+    <t>The cashier scanned the crackers, and Ms. Bianchi watched in amusement as Ms. Morrison paid the $6 price entirely in quarters from a wallet bulging with change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They shortly came to an agreement and would have enough cheese shipments to different stores to qualify for a subsidized import tax. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Bianchi retrieved some of her samples from her car, and they toasted their new deal with crackers topped with fresh mozzarella. </t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1489,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="104.05" customHeight="1">
+    <row r="6" ht="116.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>7</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="116.05" customHeight="1">
+    <row r="7" ht="128.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>8</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="128.05" customHeight="1">
+    <row r="8" ht="140.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>9</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="92.05" customHeight="1">
+    <row r="15" ht="104.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="188.05" customHeight="1">
+    <row r="23" ht="176.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
@@ -1849,7 +1849,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="116.05" customHeight="1">
+    <row r="30" ht="128.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>storyText</t>
   </si>
@@ -26,10 +26,7 @@
     <t>Ms. Bianchi and Ms. Morrison walked into the grocery store at the same time, and, after a moment of mutual recognition, greeted each other and shook hands.</t>
   </si>
   <si>
-    <t>"Thank you again for inviting me here to discuss my business proposal," said Ms. Bianchi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"It’s a pleasure to be out of the office." </t>
+    <t xml:space="preserve">"Thank you again for inviting me here to discuss my business proposal," said Ms. Bianchi, “And it’s a pleasure to be out of the office." </t>
   </si>
   <si>
     <t>As a salesperson for an Italian cheese company that was trying to expand its outreach to more mainstream grocery stores, this meeting could be a big break for her.</t>
@@ -38,13 +35,13 @@
     <t xml:space="preserve">Her sales target, Ms. Morrison,  who had a reputation for being a bit quirky, was a corporate buyer for a large chain grocery store. </t>
   </si>
   <si>
-    <t xml:space="preserve">For example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
+    <t xml:space="preserve">She was known for doing things unconventionally: for example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
   </si>
   <si>
     <t>They chatted a little in the front of the grocery store, which was surrounded by pumpkins and halloween decorations set up in special displays for the holiday season.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ms. Bianchi and Ms. Morrison walked to the cheese section, and Ms. Morrison picked up a block of parmesan.</t>
+    <t>Ms. Bianchi and Ms. Morrison walked to the cheese section, and Ms. Morrison picked up a block of parmesan.</t>
   </si>
   <si>
     <t>“We have quite a selection here.</t>
@@ -53,28 +50,28 @@
     <t xml:space="preserve">I don’t know that it needs an additional section for more gourmet cheeses.” </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ms. Bianchi's confidence faltered for a minute at this remark, but then she launched into her prepared pitch.</t>
+    <t>Ms. Bianchi's confidence faltered for a minute at this remark, but then she launched into her prepared pitch.</t>
   </si>
   <si>
     <t xml:space="preserve"> “Ms. Morrison, I think you would agree that selling food is more than just providing variety, but also about providing the highest quality.</t>
   </si>
   <si>
-    <t>You don’t have cheeses made in America that are like ours.</t>
+    <t>You don’t have cheeses made in America that are like ours, it is true.</t>
   </si>
   <si>
     <t>Your store could be providing American consumers with a dimension in taste that they've never known before with our product.</t>
   </si>
   <si>
-    <t xml:space="preserve">I propose that you give it a shot, buy shipments for a few stores, and see how the sales increase not only in our cheeses but also in products related to cheeses: crackers, jams, olives. </t>
+    <t xml:space="preserve">I propose that you give it a shot, buy $1000 worth of cheese products for a few stores, and see how the sales increase not only in our cheeses but also in products related to cheeses: crackers, jams, olives. </t>
   </si>
   <si>
     <t>The availability of a finer product leads to the appreciation of the product, and your consumers will start to consume in a new, more profitable way.”</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ms. Bianchi picked up a box of crackers by the cheese section, and said, “Here, I will buy these, and we can try some of our cheeses that I've brought with me.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ms. Morrison, nodding in agreement, said, “That sounds like a great idea.</t>
+    <t>Ms. Bianchi picked up a box of crackers by the cheese section, and said, “Here, I will buy these, and we can try some of our cheeses that I've brought with me.”</t>
+  </si>
+  <si>
+    <t>Ms. Morrison, who was thinking, nodded in agreement and said, “That sounds like a great idea.</t>
   </si>
   <si>
     <t xml:space="preserve">Let’s head to check out, and those crackers are on me.” </t>
@@ -95,19 +92,19 @@
     <t>We've been trying to find a way to add a little European cachet to our stores.</t>
   </si>
   <si>
-    <t xml:space="preserve"> There's still a problem though - I'm worried we'll be paying out the nose for the import taxes.</t>
+    <t>There's still a problem though - I'm worried we'll be paying out the nose for the import taxes.</t>
   </si>
   <si>
     <t>Is that the case?"</t>
   </si>
   <si>
-    <t xml:space="preserve"> It was Ms. Morrison’s turn to checkout, and the two businesswomen continued to talk back and forth as she did so. </t>
+    <t xml:space="preserve">It was Ms. Morrison’s turn to checkout, and the two businesswomen continued to talk back and forth as she did so. </t>
   </si>
   <si>
     <t>The cashier scanned the crackers, and Ms. Bianchi watched in amusement as Ms. Morrison paid the $6 price entirely in quarters from a wallet bulging with change.</t>
   </si>
   <si>
-    <t xml:space="preserve"> They shortly came to an agreement and would have enough cheese shipments to different stores to qualify for a subsidized import tax. </t>
+    <t xml:space="preserve">They shortly came to an agreement and would have enough cheese shipments, $5000 worth, to different stores to qualify for a subsidized import tax. </t>
   </si>
   <si>
     <t xml:space="preserve">Ms. Bianchi retrieved some of her samples from her car, and they toasted their new deal with crackers topped with fresh mozzarella. </t>
@@ -124,7 +121,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1402,7 +1399,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1410,7 +1407,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1444,7 +1447,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="80.05" customHeight="1">
+    <row r="3" ht="116.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>4</v>
       </c>
@@ -1459,7 +1462,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="44.05" customHeight="1">
+    <row r="4" ht="140.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>5</v>
       </c>
@@ -1474,7 +1477,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="140.05" customHeight="1">
+    <row r="5" ht="116.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>6</v>
       </c>
@@ -1489,7 +1492,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="116.05" customHeight="1">
+    <row r="6" ht="164.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>7</v>
       </c>
@@ -1504,7 +1507,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="128.05" customHeight="1">
+    <row r="7" ht="140.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>8</v>
       </c>
@@ -1519,12 +1522,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="140.05" customHeight="1">
+    <row r="8" ht="92.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>9</v>
       </c>
       <c r="B8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1534,7 +1537,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="92.05" customHeight="1">
+    <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>10</v>
       </c>
@@ -1549,7 +1552,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="32.05" customHeight="1">
+    <row r="10" ht="68.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>11</v>
       </c>
@@ -1564,7 +1567,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="68.05" customHeight="1">
+    <row r="11" ht="104.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>12</v>
       </c>
@@ -1579,7 +1582,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="104.05" customHeight="1">
+    <row r="12" ht="116.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>13</v>
       </c>
@@ -1587,14 +1590,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="116.05" customHeight="1">
+    <row r="13" ht="56.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>14</v>
       </c>
@@ -1609,7 +1612,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="56.05" customHeight="1">
+    <row r="14" ht="104.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>15</v>
       </c>
@@ -1624,7 +1627,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="104.05" customHeight="1">
+    <row r="15" ht="176.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
@@ -1639,7 +1642,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="152.05" customHeight="1">
+    <row r="16" ht="128.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -1669,7 +1672,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="128.05" customHeight="1">
+    <row r="18" ht="80.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
@@ -1684,7 +1687,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="68.05" customHeight="1">
+    <row r="19" ht="56.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1699,7 +1702,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="56.05" customHeight="1">
+    <row r="20" ht="44.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1714,7 +1717,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="44.05" customHeight="1">
+    <row r="21" ht="116.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1729,7 +1732,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="116.05" customHeight="1">
+    <row r="22" ht="176.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1744,7 +1747,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="176.05" customHeight="1">
+    <row r="23" ht="80.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
@@ -1752,14 +1755,14 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="80.05" customHeight="1">
+    <row r="24" ht="68.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1774,7 +1777,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="68.05" customHeight="1">
+    <row r="25" ht="80.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1789,7 +1792,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="80.05" customHeight="1">
+    <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1804,12 +1807,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
+    <row r="27" ht="104.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
       <c r="B27" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -1819,7 +1822,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="104.05" customHeight="1">
+    <row r="28" ht="140.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
@@ -1834,7 +1837,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="140.05" customHeight="1">
+    <row r="29" ht="116.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
@@ -1842,14 +1845,14 @@
         <v>4</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="128.05" customHeight="1">
+    <row r="30" ht="104.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
@@ -1864,16 +1867,10 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="104.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9">
-        <v>4</v>
-      </c>
-      <c r="C31" s="10">
-        <v>4</v>
-      </c>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1915,15 +1912,6 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -26,7 +26,7 @@
     <t>Ms. Bianchi and Ms. Morrison walked into the grocery store at the same time, and, after a moment of mutual recognition, greeted each other and shook hands.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Thank you again for inviting me here to discuss my business proposal," said Ms. Bianchi, “And it’s a pleasure to be out of the office." </t>
+    <t xml:space="preserve">“Thank you again for inviting me here to discuss my business proposal,” said Ms. Bianchi, “And it’s a pleasure to be out of the office.” </t>
   </si>
   <si>
     <t>As a salesperson for an Italian cheese company that was trying to expand its outreach to more mainstream grocery stores, this meeting could be a big break for her.</t>
@@ -121,7 +121,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1407,13 +1407,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -1656,7 +1656,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -1671,7 +1671,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1686,7 +1686,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <t>Ms. Bianchi and Ms. Morrison walked into the grocery store at the same time, and, after a moment of mutual recognition, greeted each other and shook hands.</t>
@@ -121,7 +124,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1407,7 +1410,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1421,14 +1430,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="140.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1436,14 +1447,16 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6">
+        <v>33</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="116.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1458,7 +1471,7 @@
     </row>
     <row r="4" ht="140.05" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1473,7 +1486,7 @@
     </row>
     <row r="5" ht="116.05" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1488,7 +1501,7 @@
     </row>
     <row r="6" ht="164.05" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1503,7 +1516,7 @@
     </row>
     <row r="7" ht="140.05" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1518,7 +1531,7 @@
     </row>
     <row r="8" ht="92.05" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
@@ -1533,7 +1546,7 @@
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
@@ -1548,7 +1561,7 @@
     </row>
     <row r="10" ht="68.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
@@ -1563,7 +1576,7 @@
     </row>
     <row r="11" ht="104.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -1578,7 +1591,7 @@
     </row>
     <row r="12" ht="116.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -1593,7 +1606,7 @@
     </row>
     <row r="13" ht="56.05" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -1608,7 +1621,7 @@
     </row>
     <row r="14" ht="104.05" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1623,7 +1636,7 @@
     </row>
     <row r="15" ht="176.05" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
@@ -1638,7 +1651,7 @@
     </row>
     <row r="16" ht="128.05" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
@@ -1653,7 +1666,7 @@
     </row>
     <row r="17" ht="128.05" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
@@ -1668,7 +1681,7 @@
     </row>
     <row r="18" ht="80.05" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
@@ -1683,7 +1696,7 @@
     </row>
     <row r="19" ht="56.05" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9">
         <v>2</v>
@@ -1698,7 +1711,7 @@
     </row>
     <row r="20" ht="44.05" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>3</v>
@@ -1713,7 +1726,7 @@
     </row>
     <row r="21" ht="116.05" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
@@ -1728,7 +1741,7 @@
     </row>
     <row r="22" ht="176.05" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>3</v>
@@ -1743,7 +1756,7 @@
     </row>
     <row r="23" ht="80.05" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
@@ -1758,7 +1771,7 @@
     </row>
     <row r="24" ht="68.05" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="9">
         <v>3</v>
@@ -1773,7 +1786,7 @@
     </row>
     <row r="25" ht="80.05" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="9">
         <v>3</v>
@@ -1788,7 +1801,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9">
         <v>3</v>
@@ -1803,7 +1816,7 @@
     </row>
     <row r="27" ht="104.05" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9">
         <v>4</v>
@@ -1818,7 +1831,7 @@
     </row>
     <row r="28" ht="140.05" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="9">
         <v>4</v>
@@ -1833,7 +1846,7 @@
     </row>
     <row r="29" ht="116.05" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9">
         <v>4</v>
@@ -1848,7 +1861,7 @@
     </row>
     <row r="30" ht="104.05" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="9">
         <v>4</v>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -32,19 +32,19 @@
     <t xml:space="preserve">“Thank you again for inviting me here to discuss my business proposal,” said Ms. Bianchi, “And it’s a pleasure to be out of the office.” </t>
   </si>
   <si>
-    <t>As a salesperson for an Italian cheese company that was trying to expand its outreach to more mainstream grocery stores, this meeting could be a big break for her.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Her sales target, Ms. Morrison,  who had a reputation for being a bit quirky, was a corporate buyer for a large chain grocery store. </t>
+    <t>As an account representative for an Italian cheese company that was trying to expand its outreach to more mainstream grocery stores, this meeting could be a big break for her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Her sales target, Ms. Morrison,  who had a reputation for being a bit quirky, was a senior product manager for a large chain grocery store. </t>
   </si>
   <si>
     <t xml:space="preserve">She was known for doing things unconventionally: for example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
   </si>
   <si>
-    <t>They chatted a little in the front of the grocery store, which was surrounded by pumpkins and halloween decorations set up in special displays for the holiday season.</t>
-  </si>
-  <si>
-    <t>Ms. Bianchi and Ms. Morrison walked to the cheese section, and Ms. Morrison picked up a block of parmesan.</t>
+    <t xml:space="preserve">They chatted a little in the entrance of the grocery store, which had displays of pumpkins, candy, and halloween decorations set up in different stations around the door. </t>
+  </si>
+  <si>
+    <t>Ms. Bianchi and Ms. Morrison walked to the cheese section, and Ms. Morrison motioned to the parmesan.</t>
   </si>
   <si>
     <t>“We have quite a selection here.</t>
@@ -65,7 +65,7 @@
     <t>Your store could be providing American consumers with a dimension in taste that they've never known before with our product.</t>
   </si>
   <si>
-    <t xml:space="preserve">I propose that you give it a shot, buy $1000 worth of cheese products for a few stores, and see how the sales increase not only in our cheeses but also in products related to cheeses: crackers, jams, olives. </t>
+    <t xml:space="preserve">I propose that you give it a shot, buy $1500 worth of cheese products for a few stores, and see how the sales increase not only in our cheeses but also in products related to cheeses: crackers, jams, olives. </t>
   </si>
   <si>
     <t>The availability of a finer product leads to the appreciation of the product, and your consumers will start to consume in a new, more profitable way.”</t>
@@ -74,6 +74,9 @@
     <t>Ms. Bianchi picked up a box of crackers by the cheese section, and said, “Here, I will buy these, and we can try some of our cheeses that I've brought with me.”</t>
   </si>
   <si>
+    <t>She also picked up a bottle of ketchup and a case of sparkling water “for later.”</t>
+  </si>
+  <si>
     <t>Ms. Morrison, who was thinking, nodded in agreement and said, “That sounds like a great idea.</t>
   </si>
   <si>
@@ -83,7 +86,10 @@
     <t>They walked over to the checkout area.</t>
   </si>
   <si>
-    <t xml:space="preserve">There was a very long line, and it was very busy in the checkout area as people were stocking up for Halloween parties and trick-or-treating. </t>
+    <t xml:space="preserve">It was very busy in the checkout area as people were stocking up for Halloween parties and trick-or-treating, and there were 10 aisles open. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They stepped into lane 6. </t>
   </si>
   <si>
     <t>Since they had almost a 10 minute wait in line, Ms. Bianchi handed a sheet with printed graphs to Ms. Morrison the increase in profits that several other stores had seen after starting to carry their products.</t>
@@ -95,6 +101,9 @@
     <t>We've been trying to find a way to add a little European cachet to our stores.</t>
   </si>
   <si>
+    <t xml:space="preserve">Our competitor, Orange Grocers, hasn’t expanded in this direction yet and I’d like to beat them to it. </t>
+  </si>
+  <si>
     <t>There's still a problem though - I'm worried we'll be paying out the nose for the import taxes.</t>
   </si>
   <si>
@@ -104,13 +113,16 @@
     <t xml:space="preserve">It was Ms. Morrison’s turn to checkout, and the two businesswomen continued to talk back and forth as she did so. </t>
   </si>
   <si>
-    <t>The cashier scanned the crackers, and Ms. Bianchi watched in amusement as Ms. Morrison paid the $6 price entirely in quarters from a wallet bulging with change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They shortly came to an agreement and would have enough cheese shipments, $5000 worth, to different stores to qualify for a subsidized import tax. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Bianchi retrieved some of her samples from her car, and they toasted their new deal with crackers topped with fresh mozzarella. </t>
+    <t xml:space="preserve">The cashier scanned the crackers, and Ms. Bianchi watched in amusement as Ms. Morrison paid the $23 price by writing a check. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They shortly came to an agreement and would have enough cheese shipments, $20,000 worth, to different stores to qualify for a subsidized import tax. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Bianchi retrieved some of her samples from her car, and they finalized their new deal by eating a small feast. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They consumed Ms. Bianchi’s cheese with Ms. Morrison’s crackers.  </t>
   </si>
 </sst>
 </file>
@@ -124,7 +136,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1402,7 +1414,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1410,13 +1422,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1514,7 +1520,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="140.05" customHeight="1">
+    <row r="7" ht="152.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1679,7 +1685,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="80.05" customHeight="1">
+    <row r="18" ht="68.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
@@ -1694,7 +1700,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="56.05" customHeight="1">
+    <row r="19" ht="80.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1709,12 +1715,12 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="44.05" customHeight="1">
+    <row r="20" ht="56.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
       <c r="B20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -1724,7 +1730,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="116.05" customHeight="1">
+    <row r="21" ht="44.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1739,7 +1745,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="176.05" customHeight="1">
+    <row r="22" ht="116.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1754,7 +1760,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="80.05" customHeight="1">
+    <row r="23" ht="32.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1762,14 +1768,14 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="68.05" customHeight="1">
+    <row r="24" ht="176.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -1799,7 +1805,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
+    <row r="26" ht="68.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1814,12 +1820,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="104.05" customHeight="1">
+    <row r="27" ht="80.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
       <c r="B27" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -1829,12 +1835,12 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="140.05" customHeight="1">
+    <row r="28" ht="80.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
@@ -1844,15 +1850,15 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="116.05" customHeight="1">
+    <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
       <c r="B29" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -1867,44 +1873,68 @@
         <v>4</v>
       </c>
       <c r="C30" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="11"/>
+    <row r="31" ht="104.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="11"/>
+    <row r="32" ht="128.05" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="11"/>
+    <row r="33" ht="92.05" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="11"/>
+    <row r="34" ht="68.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -1919,6 +1949,33 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>storyText</t>
   </si>
@@ -26,76 +26,67 @@
     <t>story</t>
   </si>
   <si>
-    <t>Ms. Bianchi and Ms. Morrison walked into the grocery store at the same time, and, after a moment of mutual recognition, greeted each other and shook hands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Thank you again for inviting me here to discuss my business proposal,” said Ms. Bianchi, “And it’s a pleasure to be out of the office.” </t>
-  </si>
-  <si>
-    <t>As an account representative for an Italian cheese company that was trying to expand its outreach to more mainstream grocery stores, this meeting could be a big break for her.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Her sales target, Ms. Morrison,  who had a reputation for being a bit quirky, was a senior product manager for a large chain grocery store. </t>
+    <t>Ms. Bianchi and Ms. Morrison walked into the grocery store at the same time, and, after a moment of mutual recognition, greeted each other with a handshake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were standing in the entrance of the grocery store, which had displays of pumpkins, candy, and halloween decorations set up in different stations around the door. </t>
+  </si>
+  <si>
+    <t>“Thank you again for inviting me here to discuss my business proposal,” said Ms. Bianchi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“It’s a pleasure to be out of the office.” </t>
+  </si>
+  <si>
+    <t>As an account representative for an Italian cheese company that was trying to expand its outreach to American grocery stores, this meeting was pivotal for Ms. Bianchi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Her sales target, Ms. Morrison, was the senior product manager for brand of grocery stores they were in and she had a say in the products distributed in all the stores. </t>
   </si>
   <si>
     <t xml:space="preserve">She was known for doing things unconventionally: for example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
   </si>
   <si>
-    <t xml:space="preserve">They chatted a little in the entrance of the grocery store, which had displays of pumpkins, candy, and halloween decorations set up in different stations around the door. </t>
-  </si>
-  <si>
-    <t>Ms. Bianchi and Ms. Morrison walked to the cheese section, and Ms. Morrison motioned to the parmesan.</t>
+    <t>In the cheese section of the grocery store, and Ms. Morrison motioned to the parmesan.</t>
   </si>
   <si>
     <t>“We have quite a selection here.</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t know that it needs an additional section for more gourmet cheeses.” </t>
-  </si>
-  <si>
-    <t>Ms. Bianchi's confidence faltered for a minute at this remark, but then she launched into her prepared pitch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “Ms. Morrison, I think you would agree that selling food is more than just providing variety, but also about providing the highest quality.</t>
-  </si>
-  <si>
-    <t>You don’t have cheeses made in America that are like ours, it is true.</t>
-  </si>
-  <si>
-    <t>Your store could be providing American consumers with a dimension in taste that they've never known before with our product.</t>
+    <t xml:space="preserve">I don’t know that we need an additional section for more gourmet cheeses.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ms. Bianchi did not hesitate but launched into her pitch: “Ms. Morrison, I think you would agree that selling food is more than just providing variety, but also about providing the highest quality.</t>
+  </si>
+  <si>
+    <t>You don’t have cheeses made in America that are like ours- it is true.</t>
+  </si>
+  <si>
+    <t>The availability of a product of excellent quality leads to the appreciation of the product: your consumers will want to buy other, finer products to compliment that first ingredient, and suddenly your customer will be consuming in a new, more profitable way.”</t>
   </si>
   <si>
     <t xml:space="preserve">I propose that you give it a shot, buy $1500 worth of cheese products for a few stores, and see how the sales increase not only in our cheeses but also in products related to cheeses: crackers, jams, olives. </t>
   </si>
   <si>
-    <t>The availability of a finer product leads to the appreciation of the product, and your consumers will start to consume in a new, more profitable way.”</t>
-  </si>
-  <si>
     <t>Ms. Bianchi picked up a box of crackers by the cheese section, and said, “Here, I will buy these, and we can try some of our cheeses that I've brought with me.”</t>
   </si>
   <si>
+    <t>Ms. Morrison, who was thinking about the proposed offer, nodded in agreement and said, “That sounds like a great idea, and those crackers are on me.”</t>
+  </si>
+  <si>
     <t>She also picked up a bottle of ketchup and a case of sparkling water “for later.”</t>
   </si>
   <si>
-    <t>Ms. Morrison, who was thinking, nodded in agreement and said, “That sounds like a great idea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let’s head to check out, and those crackers are on me.” </t>
-  </si>
-  <si>
-    <t>They walked over to the checkout area.</t>
-  </si>
-  <si>
     <t xml:space="preserve">It was very busy in the checkout area as people were stocking up for Halloween parties and trick-or-treating, and there were 10 aisles open. </t>
   </si>
   <si>
-    <t xml:space="preserve">They stepped into lane 6. </t>
-  </si>
-  <si>
-    <t>Since they had almost a 10 minute wait in line, Ms. Bianchi handed a sheet with printed graphs to Ms. Morrison the increase in profits that several other stores had seen after starting to carry their products.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eventually, Ms. Morrison replied, “You know what, I think you've convinced me that this could work. </t>
+    <t>They stepped into lane 6 and waited.</t>
+  </si>
+  <si>
+    <t>Ms. Bianchi handed to Ms. Morrison a packet with printed graphs of the increase in profits that several other stores in Italy had seen after starting to carry their products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a couple minutes of thinking, Ms. Morrison widened her eyes and said confidently, “You know what, I think you've convinced me that this could work. </t>
   </si>
   <si>
     <t>We've been trying to find a way to add a little European cachet to our stores.</t>
@@ -110,19 +101,22 @@
     <t>Is that the case?"</t>
   </si>
   <si>
-    <t xml:space="preserve">It was Ms. Morrison’s turn to checkout, and the two businesswomen continued to talk back and forth as she did so. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cashier scanned the crackers, and Ms. Bianchi watched in amusement as Ms. Morrison paid the $23 price by writing a check. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They shortly came to an agreement and would have enough cheese shipments, $20,000 worth, to different stores to qualify for a subsidized import tax. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Bianchi retrieved some of her samples from her car, and they finalized their new deal by eating a small feast. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They consumed Ms. Bianchi’s cheese with Ms. Morrison’s crackers.  </t>
+    <t>It was Ms. Morrison’s turn to checkout, and the cashier chatted with Ms. Morrison as she scanned the items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Morrison was also distinguished for knowing most of the employees personally. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Bianchi watched in amusement as Ms. Morrison paid the $23 price by writing a check. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Ms. Bianci addressed Ms. Morrison’s concerns, they came to an agreement and would have enough cheese shipments, $20,000 worth, to different stores to qualify for a subsidized import tax. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Morrison had had a small bottle of champagne in her purse, and she pulled it out and popped it in celebration of their deal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Bianchi was amazed and ecstatic. </t>
   </si>
 </sst>
 </file>
@@ -326,10 +320,10 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1414,7 +1408,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1460,7 +1454,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="116.05" customHeight="1">
+    <row r="3" ht="152.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1475,7 +1469,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="140.05" customHeight="1">
+    <row r="4" ht="80.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1490,7 +1484,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="116.05" customHeight="1">
+    <row r="5" ht="44.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1505,7 +1499,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="164.05" customHeight="1">
+    <row r="6" ht="140.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1520,7 +1514,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="152.05" customHeight="1">
+    <row r="7" ht="128.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1535,12 +1529,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="92.05" customHeight="1">
+    <row r="8" ht="164.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
       <c r="B8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1550,7 +1544,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="32.05" customHeight="1">
+    <row r="9" ht="80.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1565,7 +1559,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="68.05" customHeight="1">
+    <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1580,7 +1574,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="104.05" customHeight="1">
+    <row r="11" ht="68.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1595,7 +1589,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="116.05" customHeight="1">
+    <row r="12" ht="152.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1625,7 +1619,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="104.05" customHeight="1">
+    <row r="14" ht="200.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1670,7 +1664,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="128.05" customHeight="1">
+    <row r="17" ht="140.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1700,12 +1694,12 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="80.05" customHeight="1">
+    <row r="19" ht="116.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
       <c r="B19" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -1715,12 +1709,12 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="56.05" customHeight="1">
+    <row r="20" ht="32.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
       <c r="B20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -1730,7 +1724,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="44.05" customHeight="1">
+    <row r="21" ht="140.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1745,7 +1739,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="116.05" customHeight="1">
+    <row r="22" ht="128.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1753,14 +1747,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="32.05" customHeight="1">
+    <row r="23" ht="68.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1768,14 +1762,14 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="176.05" customHeight="1">
+    <row r="24" ht="80.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1783,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -1805,7 +1799,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="68.05" customHeight="1">
+    <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1820,12 +1814,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="80.05" customHeight="1">
+    <row r="27" ht="92.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
       <c r="B27" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -1835,27 +1829,23 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="80.05" customHeight="1">
+    <row r="28" ht="68.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="10">
-        <v>3</v>
-      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="20.05" customHeight="1">
+    <row r="29" ht="80.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
       <c r="B29" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -1865,7 +1855,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="104.05" customHeight="1">
+    <row r="30" ht="176.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1873,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -1888,14 +1878,14 @@
         <v>4</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="128.05" customHeight="1">
+    <row r="32" ht="44.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1910,39 +1900,27 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="92.05" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="68.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1950,31 +1928,13 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -41,10 +41,10 @@
     <t>As an account representative for an Italian cheese company that was trying to expand its outreach to American grocery stores, this meeting was pivotal for Ms. Bianchi.</t>
   </si>
   <si>
-    <t xml:space="preserve">Her sales target, Ms. Morrison, was the senior product manager for brand of grocery stores they were in and she had a say in the products distributed in all the stores. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She was known for doing things unconventionally: for example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
+    <t xml:space="preserve">Her sales target, Ms. Morrison, was the senior product manager for a corporate grocer and she had a say in the products distributed in all the stores. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Morrison was known for doing things unconventionally: for example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
   </si>
   <si>
     <t>In the cheese section of the grocery store, and Ms. Morrison motioned to the parmesan.</t>
@@ -71,10 +71,10 @@
     <t>Ms. Bianchi picked up a box of crackers by the cheese section, and said, “Here, I will buy these, and we can try some of our cheeses that I've brought with me.”</t>
   </si>
   <si>
-    <t>Ms. Morrison, who was thinking about the proposed offer, nodded in agreement and said, “That sounds like a great idea, and those crackers are on me.”</t>
-  </si>
-  <si>
-    <t>She also picked up a bottle of ketchup and a case of sparkling water “for later.”</t>
+    <t>Ms. Morrison, who was thinking about the proposed offer, nodded in agreement and said, “That sounds like a great idea, but those crackers are on me.”</t>
+  </si>
+  <si>
+    <t>She took the crackers from Ms. Bianchi and also picked up a bottle of ketchup and a case of sparkling water “for later.”</t>
   </si>
   <si>
     <t xml:space="preserve">It was very busy in the checkout area as people were stocking up for Halloween parties and trick-or-treating, and there were 10 aisles open. </t>
@@ -101,7 +101,7 @@
     <t>Is that the case?"</t>
   </si>
   <si>
-    <t>It was Ms. Morrison’s turn to checkout, and the cashier chatted with Ms. Morrison as she scanned the items.</t>
+    <t>It was Ms. Morrison’s turn to check out, and the cashier chatted with Ms. Morrison as she scanned the items.</t>
   </si>
   <si>
     <t xml:space="preserve">Ms. Morrison was also distinguished for knowing most of the employees personally. </t>
@@ -1514,7 +1514,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="128.05" customHeight="1">
+    <row r="7" ht="116.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="164.05" customHeight="1">
+    <row r="8" ht="176.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="68.05" customHeight="1">
+    <row r="18" ht="92.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -41,19 +41,19 @@
     <t>As an account representative for an Italian cheese company that was trying to expand its outreach to American grocery stores, this meeting was pivotal for Ms. Bianchi.</t>
   </si>
   <si>
-    <t xml:space="preserve">Her sales target, Ms. Morrison, was the senior product manager for a corporate grocer and she had a say in the products distributed in all the stores. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Morrison was known for doing things unconventionally: for example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
-  </si>
-  <si>
-    <t>In the cheese section of the grocery store, and Ms. Morrison motioned to the parmesan.</t>
+    <t>Her sales target, Ms. Morrison, was the senior product manager for a corporate grocer and she had a say in the products distributed in stores across the West Coast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Morrison was also known for doing things unconventionally: for example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
+  </si>
+  <si>
+    <t>In the cheese section of the grocery store, Ms. Morrison motioned to the parmesan.</t>
   </si>
   <si>
     <t>“We have quite a selection here.</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t know that we need an additional section for more gourmet cheeses.” </t>
+    <t xml:space="preserve">I don’t know that we need an additional section for gourmet cheeses.” </t>
   </si>
   <si>
     <t xml:space="preserve"> Ms. Bianchi did not hesitate but launched into her pitch: “Ms. Morrison, I think you would agree that selling food is more than just providing variety, but also about providing the highest quality.</t>
@@ -62,10 +62,13 @@
     <t>You don’t have cheeses made in America that are like ours- it is true.</t>
   </si>
   <si>
-    <t>The availability of a product of excellent quality leads to the appreciation of the product: your consumers will want to buy other, finer products to compliment that first ingredient, and suddenly your customer will be consuming in a new, more profitable way.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I propose that you give it a shot, buy $1500 worth of cheese products for a few stores, and see how the sales increase not only in our cheeses but also in products related to cheeses: crackers, jams, olives. </t>
+    <t>The availability of a product of excellent quality leads to the appreciation of the product.</t>
+  </si>
+  <si>
+    <t>Your consumers will want to buy other, finer products to compliment that first ingredient, and suddenly your customer will be consuming in a new, more profitable way.</t>
+  </si>
+  <si>
+    <t>I propose that you give it a shot: buy $1500 worth of cheese products for a few stores, and see how the sales increase not only in our cheeses but also in products related to cheeses: crackers, jams, olives.”</t>
   </si>
   <si>
     <t>Ms. Bianchi picked up a box of crackers by the cheese section, and said, “Here, I will buy these, and we can try some of our cheeses that I've brought with me.”</t>
@@ -77,7 +80,10 @@
     <t>She took the crackers from Ms. Bianchi and also picked up a bottle of ketchup and a case of sparkling water “for later.”</t>
   </si>
   <si>
-    <t xml:space="preserve">It was very busy in the checkout area as people were stocking up for Halloween parties and trick-or-treating, and there were 10 aisles open. </t>
+    <t>It was very busy in the checkout area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People were stocking up for Halloween parties and trick-or-treating, and there were 10 aisles open. </t>
   </si>
   <si>
     <t>They stepped into lane 6 and waited.</t>
@@ -92,10 +98,10 @@
     <t>We've been trying to find a way to add a little European cachet to our stores.</t>
   </si>
   <si>
-    <t xml:space="preserve">Our competitor, Orange Grocers, hasn’t expanded in this direction yet and I’d like to beat them to it. </t>
-  </si>
-  <si>
-    <t>There's still a problem though - I'm worried we'll be paying out the nose for the import taxes.</t>
+    <t xml:space="preserve">Our competitor, Orange Grocers, hasn’t expanded in this direction yet, and I’d like to beat them to it. </t>
+  </si>
+  <si>
+    <t>There's still a problem though- I'm worried we'll be paying out the nose for the import taxes.</t>
   </si>
   <si>
     <t>Is that the case?"</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">Ms. Morrison had had a small bottle of champagne in her purse, and she pulled it out and popped it in celebration of their deal. </t>
   </si>
   <si>
-    <t xml:space="preserve">Ms. Bianchi was amazed and ecstatic. </t>
+    <t xml:space="preserve">Ms. Bianchi decided that she loved doing business with Americans. </t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1414,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1514,7 +1520,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="116.05" customHeight="1">
+    <row r="7" ht="128.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1619,7 +1625,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="200.05" customHeight="1">
+    <row r="14" ht="80.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1634,7 +1640,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="176.05" customHeight="1">
+    <row r="15" ht="140.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
@@ -1649,7 +1655,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="128.05" customHeight="1">
+    <row r="16" ht="176.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
@@ -1664,7 +1670,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="140.05" customHeight="1">
+    <row r="17" ht="128.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1679,7 +1685,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="92.05" customHeight="1">
+    <row r="18" ht="140.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
@@ -1694,12 +1700,12 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="116.05" customHeight="1">
+    <row r="19" ht="92.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
       <c r="B19" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -1724,7 +1730,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="140.05" customHeight="1">
+    <row r="21" ht="92.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1739,7 +1745,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="128.05" customHeight="1">
+    <row r="22" ht="32.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1747,14 +1753,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="68.05" customHeight="1">
+    <row r="23" ht="140.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1762,14 +1768,14 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="80.05" customHeight="1">
+    <row r="24" ht="128.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1784,7 +1790,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="80.05" customHeight="1">
+    <row r="25" ht="68.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1799,7 +1805,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
+    <row r="26" ht="80.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1814,12 +1820,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="92.05" customHeight="1">
+    <row r="27" ht="80.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
       <c r="B27" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -1829,18 +1835,22 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="68.05" customHeight="1">
+    <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="80.05" customHeight="1">
+    <row r="29" ht="92.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1855,22 +1865,18 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="176.05" customHeight="1">
+    <row r="30" ht="68.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="B30" s="9">
-        <v>4</v>
-      </c>
-      <c r="C30" s="10">
-        <v>4</v>
-      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="104.05" customHeight="1">
+    <row r="31" ht="80.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1878,14 +1884,14 @@
         <v>4</v>
       </c>
       <c r="C31" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="44.05" customHeight="1">
+    <row r="32" ht="176.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1900,19 +1906,31 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
+    <row r="33" ht="104.05" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
+    <row r="34" ht="68.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -1936,6 +1954,24 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/33.xlsx
+++ b/story_xlsx_files/33.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -41,7 +41,7 @@
     <t>As an account representative for an Italian cheese company that was trying to expand its outreach to American grocery stores, this meeting was pivotal for Ms. Bianchi.</t>
   </si>
   <si>
-    <t>Her sales target, Ms. Morrison, was the senior product manager for a corporate grocer and she had a say in the products distributed in stores across the West Coast.</t>
+    <t>Her sales target, Ms. Morrison, was the senior purchasing manager for a corporate grocer and she had a say in the products distributed in stores across the West Coast.</t>
   </si>
   <si>
     <t xml:space="preserve">Ms. Morrison was also known for doing things unconventionally: for example, she said that she liked to make deals with suppliers in the place where the products were sold- “to keep their minds focused on what’s important.” </t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">I don’t know that we need an additional section for gourmet cheeses.” </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ms. Bianchi did not hesitate but launched into her pitch: “Ms. Morrison, I think you would agree that selling food is more than just providing variety, but also about providing the highest quality.</t>
+    <t>Ms. Bianchi did not hesitate but launched into her pitch: “Ms. Morrison, I think you would agree that selling food is not just about providing variety, but also about providing the highest quality.</t>
   </si>
   <si>
     <t>You don’t have cheeses made in America that are like ours- it is true.</t>
@@ -68,7 +68,7 @@
     <t>Your consumers will want to buy other, finer products to compliment that first ingredient, and suddenly your customer will be consuming in a new, more profitable way.</t>
   </si>
   <si>
-    <t>I propose that you give it a shot: buy $1500 worth of cheese products for a few stores, and see how the sales increase not only in our cheeses but also in products related to cheeses: crackers, jams, olives.”</t>
+    <t>I propose that you give it a shot: buy $1500 worth of cheese products for a few stores, and see how the sales increase not only in our cheeses, but also in products related to cheeses like crackers, jams, and olives.”</t>
   </si>
   <si>
     <t>Ms. Bianchi picked up a box of crackers by the cheese section, and said, “Here, I will buy these, and we can try some of our cheeses that I've brought with me.”</t>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>There's still a problem though- I'm worried we'll be paying out the nose for the import taxes.</t>
-  </si>
-  <si>
-    <t>Is that the case?"</t>
   </si>
   <si>
     <t>It was Ms. Morrison’s turn to check out, and the cashier chatted with Ms. Morrison as she scanned the items.</t>
@@ -1414,7 +1411,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1520,7 +1517,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="128.05" customHeight="1">
+    <row r="7" ht="140.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1655,7 +1652,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="176.05" customHeight="1">
+    <row r="16" ht="164.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
@@ -1835,12 +1832,12 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
+    <row r="28" ht="92.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
@@ -1850,33 +1847,33 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="92.05" customHeight="1">
+    <row r="29" ht="68.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="B29" s="9">
-        <v>4</v>
-      </c>
-      <c r="C29" s="10">
-        <v>3</v>
-      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="68.05" customHeight="1">
+    <row r="30" ht="80.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
+    <row r="31" ht="176.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1884,14 +1881,14 @@
         <v>4</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="176.05" customHeight="1">
+    <row r="32" ht="104.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1906,7 +1903,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="104.05" customHeight="1">
+    <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1921,16 +1918,10 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="68.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -1963,15 +1954,6 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
